--- a/Dataset/Folds/Fold_1/Excel/18.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="503">
   <si>
     <t>Doi</t>
   </si>
@@ -1570,6 +1570,410 @@
   </si>
   <si>
     <t>[Alexandre%B. Cavalcanti%coreGivesNoEmail%2,    Alvaro%Avezum%coreGivesNoEmail%2,    Andre%N. Costa%coreGivesNoEmail%2,    Bruno%M. Tomazini%coreGivesNoEmail%2,    Caio%C. F. Fernandes%coreGivesNoEmail%2,    Cassia%Righy%coreGivesNoEmail%2,    Cristina%P. Amendola%coreGivesNoEmail%2,    Daniel%N. Forte%coreGivesNoEmail%2,    Daniela%H. M. Freitas%coreGivesNoEmail%2,    Douglas%Costa Morais%coreGivesNoEmail%2,    Eduardo%L. V. Costa%coreGivesNoEmail%2,    Fernando%G. Zampieri%coreGivesNoEmail%2,    Flavia%R. Bueno%coreGivesNoEmail%2,    Fl\u00e1via%R. Machado%coreGivesNoEmail%2,    Fl\u00e1vio%G. R. Freitas%coreGivesNoEmail%2,    Franca%P. Baldassare%coreGivesNoEmail%2,    Gedealvares%F. S. Junior%coreGivesNoEmail%2,    Guilherme%B. Olivato%coreGivesNoEmail%2,    Israel%S. Maia%coreGivesNoEmail%2,    Let\u00edcia%Kawano-Dourado%coreGivesNoEmail%2,    Livia%M. G. Melro%coreGivesNoEmail%2,    Lucas%P. Damiani%coreGivesNoEmail%2,    Luciano%C. P. Azevedo%coreGivesNoEmail%2,    Maria%Vitoria A. O. Silva%coreGivesNoEmail%2,    Michele%O. Honorato%coreGivesNoEmail%2,    Otavio%Berwanger%coreGivesNoEmail%2,    Regis%G. Rosa%coreGivesNoEmail%2,    Renato%D. Lopes%coreGivesNoEmail%2,    Ricardo%A. B. Moura%coreGivesNoEmail%2,    Roberta%M. L. Roepke%coreGivesNoEmail%2,    Stevin%Zung%coreGivesNoEmail%2,    Thiago%Lisboa%coreGivesNoEmail%2,    Viviane%C. Veiga%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,       Bohan%Yang%NULL%1,       Qianwen%Li%NULL%1,       Lu%Wen%NULL%1,       Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%2,       Zhiguo%Zhang%NULL%2,       Zhiguo%Zhang%NULL%0,       Muqing%Yu%NULL%1,       Yu%Tao%NULL%1,       Min%Xie%xie_m@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Jianfeng%Wu%NULL%1,       Jianqiang%Huang%NULL%1,       Guochao%Zhu%NULL%1,       Yihao%Liu%NULL%1,       Han%Xiao%NULL%1,       Qian%Zhou%NULL%1,       Xiang%Si%NULL%1,       Hui%Yi%NULL%1,       Cuiping%Wang%NULL%1,       Daya%Yang%NULL%1,       Shuling%Chen%NULL%1,       Xin%Liu%NULL%1,       Zelong%Liu%NULL%1,       Qiongya%Wang%NULL%1,       Qingquan%Lv%NULL%1,       Ying%Huang%NULL%1,       Yang%Yu%NULL%1,       Xiangdong%Guan%NULL%1,       Yanbing%Li%NULL%1,       Krishnarajah%Nirantharakumar%NULL%1,       KarKeung%Cheng%NULL%1,       Sui%Peng%pengsui@vip.163.com%1,       Haipeng%Xiao%xiaohp@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kaijin%Xu%NULL%1,       Yanfei%Chen%NULL%1,       Jing%Yuan%NULL%1,       Ping%Yi%NULL%1,       Cheng%Ding%NULL%1,       Wenrui%Wu%NULL%2,       Yongtao%Li%NULL%1,       Qin%Ni%NULL%1,       Rongrong%Zou%NULL%1,       Xiaohe%Li%NULL%1,       Min%Xu%NULL%1,       Ying%Zhang%NULL%1,       Hong%Zhao%NULL%1,       Xuan%Zhang%NULL%1,       Liang%Yu%NULL%1,       Junwei%Su%NULL%1,       Guanjing%Lang%NULL%1,       Jun%Liu%NULL%1,       Xiaoxin%Wu%NULL%1,       Yongzheng%Guo%NULL%1,       Jingjing%Tao%NULL%1,       Ding%Shi%NULL%1,       Ling%Yu%NULL%1,       Qing%Cao%NULL%1,       Bing%Ruan%NULL%1,       Lei%Liu%NULL%1,       Zhaoqin%Wang%NULL%1,       Yan%Xu%NULL%1,       Yingxia%Liu%NULL%1,       Jifang%Sheng%NULL%2,       Lanjuan%Li%ljli@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Stephen Su%Yang%stephen.yang@mail.mcgill.ca%1,       Jed%Lipes%NULL%2,       Jed%Lipes%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%2,       Shirong%Li%NULL%1,       Lingling%Pan%NULL%1,       Boris%Tefsen%NULL%1,       Yeshan%Li%NULL%1,       Neil%French%NULL%1,       Liyun%Chen%NULL%1,       Gang%Yang%NULL%1,       Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Salton%NULL%1,       Paola%Confalonieri%NULL%1,       G Umberto%Meduri%NULL%1,       Pierachille%Santus%NULL%1,       Sergio%Harari%NULL%1,       Raffaele%Scala%NULL%1,       Simone%Lanini%NULL%1,       Valentina%Vertui%NULL%1,       Tiberio%Oggionni%NULL%1,       Antonella%Caminati%NULL%1,       Vincenzo%Patruno%NULL%1,       Mario%Tamburrini%NULL%1,       Alessandro%Scartabellati%NULL%1,       Mara%Parati%NULL%1,       Massimiliano%Villani%NULL%1,       Dejan%Radovanovic%NULL%1,       Sara%Tomassetti%NULL%1,       Claudia%Ravaglia%NULL%1,       Venerino%Poletti%NULL%1,       Andrea%Vianello%NULL%1,       Anna Talia%Gaccione%NULL%1,       Luca%Guidelli%NULL%1,       Rita%Raccanelli%NULL%1,       Paolo%Lucernoni%NULL%1,       Donato%Lacedonia%NULL%1,       Maria Pia%Foschino Barbaro%NULL%1,       Stefano%Centanni%NULL%1,       Michele%Mondoni%NULL%1,       Matteo%Davì%NULL%1,       Alberto%Fantin%NULL%1,       Xueyuan%Cao%NULL%1,       Lucio%Torelli%NULL%1,       Antonella%Zucchetto%NULL%1,       Marcella%Montico%NULL%1,       Annalisa%Casarin%NULL%1,       Micaela%Romagnoli%NULL%1,       Stefano%Gasparini%NULL%1,       Martina%Bonifazi%NULL%1,       Pierlanfranco%D’Agaro%NULL%1,       Alessandro%Marcello%NULL%1,       Danilo%Licastro%NULL%1,       Barbara%Ruaro%NULL%1,       Maria Concetta%Volpe%NULL%1,       Reba%Umberger%NULL%1,       Marco%Confalonieri%mconfalonieri@units.it%1]</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%2,       Fang%Zheng%NULL%2,       Fang%Zheng%NULL%0,       Danfeng%Sun%NULL%1,       Yun%Ling%NULL%3,       Jun%Chen%NULL%1,       Feng%Li%NULL%2,       Feng%Li%NULL%0,       Tao%Li%NULL%2,       Zhiping%Qian%NULL%1,       Yuyi%Zhang%NULL%1,       Qingnian%Xu%NULL%1,       Li%Liu%NULL%1,       Qin%Huang%NULL%1,       Fei%Shan%NULL%1,       Lie%Xu%NULL%1,       Jun%Wu%NULL%1,       Zhaoqin%Zhu%NULL%1,       Zhigang%Song%NULL%1,       Shenyang%Li%NULL%1,       Yuxin%Shi%NULL%1,       Jianliang%Zhang%NULL%1,       Xueyun%Wu%NULL%1,       Joshua B.%Mendelsohn%NULL%2,       Joshua B.%Mendelsohn%NULL%0,       Tongyu%Zhu%NULL%1,       Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[José Luis%Callejas Rubio%jlcalleja@telefonica.net%1,       Juan de Dios%Luna del Castillo%NULL%1,       Javier%de la Hera Fernández%NULL%1,       Emilio%Guirao Arrabal%NULL%1,       Manuel%Colmenero Ruiz%NULL%1,       Norberto%Ortego Centeno%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ding%Shi%NULL%1,       Wenrui%Wu%NULL%0,       Qing%Wang%NULL%1,       Kaijin%Xu%NULL%1,       Jiaojiao%Xie%NULL%1,       Jingjing%Wu%NULL%1,       Longxian%Lv%NULL%1,       Jifang%Sheng%NULL%0,       Jing%Guo%NULL%1,       Kaicen%Wang%NULL%1,       Daiqiong%Fang%NULL%1,       Yating%Li%NULL%1,       Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%2,       Weiwei%Jiang%NULL%1,       Qi%He%NULL%1,       Cheng%Wang%NULL%1,       Baoju%Wang%NULL%1,       Pan%Zhou%NULL%1,       Nianguo%Dong%dongnianguo63@gmail.com%1,       Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%3,       Xian%Zhou%NULL%1,       Tao%Li%NULL%0,       Shiji%Chan%NULL%1,       Yiqi%Yu%NULL%1,       Jing-Wen%Ai%NULL%1,       Haocheng%Zhang%NULL%1,       Feng%Sun%NULL%1,       Qiran%Zhang%NULL%1,       Lei%Zhu%NULL%1,       Lingyun%Shao%NULL%1,       Bin%Xu%NULL%1,       Wenhong%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Liu%NULL%1,       Xiaobin%Zheng%NULL%1,       Yiying%Huang%NULL%1,       Hong%Shan%shanhong@mail.sysu.edu.cn%1,       Jin%Huang%hjin@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiang-Hong%Yang%NULL%1,       Ran-Ran%Li%NULL%1,       Ren-Hua%Sun%NULL%1,       Jiao%Liu%NULL%1,       De-Chang%Chen%NULL%1,       Peng%Lyu%NULL%2,       Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%2,       Taige%Chen%NULL%1,       Yang%Wang%NULL%1,       Jun%Wang%NULL%1,       Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yiming%Ma%NULL%1,       Huihui%Zeng%NULL%1,       Zijie%Zhan%NULL%1,       Huanhuan%Lu%NULL%1,       Zihang%Zeng%NULL%1,       Chenjie%He%NULL%1,       Xiangming%Liu%NULL%1,       Chen%Chen%NULL%1,       Qingwu%Qin%NULL%1,       Jia%He%NULL%1,       Zhiguo%Zhou%NULL%1,       Peng%Huang%NULL%1,       Mingyan%Jiang%NULL%1,       Dingding%Deng%NULL%1,       Xin%Liao%NULL%1,       Zhi%Xiang%NULL%1,       Xiaoying%Huang%NULL%1,       Yan%Chen%NULL%1,       Ping%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Monil%Majmundar%NULL%1,       Tikal%Kansara%NULL%2,       Tikal%Kansara%NULL%0,       Joanna Marta%Lenik%NULL%1,       Hansang%Park%NULL%1,       Kuldeep%Ghosh%NULL%1,       Rajkumar%Doshi%NULL%1,       Palak%Shah%NULL%1,       Ashish%Kumar%NULL%1,       Hossam%Amin%NULL%2,       Hossam%Amin%NULL%0,       Shobhana%Chaudhari%NULL%1,       Imnett%Habtes%NULL%1,       Muhammad%Adrish%NULL%8,       Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Malgorzata%Mikulska%NULL%1,       Laura Ambra%Nicolini%NULL%2,       Laura Ambra%Nicolini%NULL%0,       Alessio%Signori%NULL%1,       Antonio%Di Biagio%NULL%1,       Chiara%Sepulcri%NULL%2,       Chiara%Sepulcri%NULL%0,       Chiara%Russo%NULL%1,       Silvia%Dettori%NULL%1,       Marco%Berruti%NULL%1,       Maria Pia%Sormani%NULL%1,       Daniele Roberto%Giacobbe%NULL%1,       Antonio%Vena%NULL%2,       Antonio%Vena%NULL%0,       Andrea%De Maria%NULL%1,       Chiara%Dentone%NULL%1,       Lucia%Taramasso%NULL%1,       Michele%Mirabella%NULL%2,       Michele%Mirabella%NULL%0,       Laura%Magnasco%NULL%1,       Sara%Mora%NULL%1,       Emanuele%Delfino%NULL%1,       Federica%Toscanini%NULL%1,       Elisa%Balletto%NULL%1,       Anna Ida%Alessandrini%NULL%1,       Federico%Baldi%NULL%1,       Federica%Briano%NULL%1,       Marco%Camera%NULL%1,       Ferdinando%Dodi%NULL%1,       Antonio%Ferrazin%NULL%1,       Laura%Labate%NULL%1,       Giovanni%Mazzarello%NULL%1,       Rachele%Pincino%NULL%1,       Federica%Portunato%NULL%1,       Stefania%Tutino%NULL%1,       Emanuela%Barisione%NULL%1,       Bianca%Bruzzone%NULL%1,       Andrea%Orsi%NULL%1,       Eva%Schenone%NULL%1,       Nirmala%Rosseti%NULL%1,       Elisabetta%Sasso%NULL%1,       Giorgio%Da Rin%NULL%1,       Paolo%Pelosi%NULL%1,       Sabrina%Beltramini%NULL%1,       Mauro%Giacomini%NULL%1,       Giancarlo%Icardi%NULL%2,       Giancarlo%Icardi%NULL%0,       Angelo%Gratarola%NULL%1,       Matteo%Bassetti%NULL%1,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%2,       Yi%Yang%NULL%1,       Futai%Shang%NULL%1,       Yishan%Zheng%NULL%1,       Wenjing%Zhao%NULL%1,       Liang%Luo%NULL%1,       Xudong%Han%NULL%1,       Aihua%Lin%NULL%1,       Hongsheng%Zhao%NULL%1,       Qing%Gu%NULL%1,       Yi%Shi%NULL%1,       Jun%Li%NULL%1,       Xingxiang%Xu%NULL%1,       Kexi%Liu%NULL%1,       YiJun%Deng%NULL%1,       Quan%Cao%NULL%1,       Weiwei%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%4,       Yun%Ling%NULL%0,       Yun%Ling%NULL%0,       Tao%Bai%NULL%2,       Tao%Bai%NULL%0,       Yusang%Xie%NULL%1,       Jie%Huang%NULL%2,       Jie%Huang%NULL%0,       Jian%Li%NULL%1,       Weining%Xiong%NULL%1,       Dexiang%Yang%NULL%1,       Rong%Chen%NULL%1,       Fangying%Lu%NULL%1,       Yunfei%Lu%NULL%1,       Xuhui%Liu%NULL%1,       Yuqing%Chen%NULL%2,       Yuqing%Chen%NULL%0,       Xin%Li%NULL%1,       Yong%Li%NULL%1,       Hanssa Dwarka%Summah%NULL%1,       Huihuang%Lin%NULL%1,       Jiayang%Yan%NULL%1,       Min%Zhou%NULL%1,       Hongzhou%Lu%NULL%0,       Hongzhou%Lu%NULL%0,       Jieming%Qu%NULL%2,       Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana%Fernández-Cruz%NULL%1,       Belén%Ruiz-Antorán%NULL%2,       Belén%Ruiz-Antorán%NULL%0,       Ana%Muñoz-Gómez%NULL%1,       Aránzazu%Sancho-López%NULL%1,       Patricia%Mills-Sánchez%NULL%1,       Gustavo Adolfo%Centeno-Soto%NULL%1,       Silvia%Blanco-Alonso%NULL%1,       Laura%Javaloyes-Garachana%NULL%1,       Amy%Galán-Gómez%NULL%1,       Ángela%Valencia-Alijo%NULL%1,       Javier%Gómez-Irusta%NULL%1,       Concepción%Payares-Herrera%NULL%1,       Ignacio%Morrás-Torre%NULL%1,       Enrique%Sánchez-Chica%NULL%1,       Laura%Delgado-Téllez-de-Cepeda%NULL%1,       Alejandro%Callejas-Díaz%NULL%1,       Antonio%Ramos-Martínez%NULL%1,       Elena%Múñez-Rubio%NULL%2,       Elena%Múñez-Rubio%NULL%0,       Cristina%Avendaño-Solá%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmine%Gazzaruso%c.gazzaruso@gmail.com%1,       Nicoletta%Carlo Stella%NULL%2,       Nicoletta%Carlo Stella%NULL%0,       Giuseppe%Mariani%NULL%1,       Anna%Tamburlini%NULL%1,       Pietro%Garini%NULL%1,       Elena%Freddi%NULL%1,       Carolina%Ravetto%NULL%1,       Adriana%Coppola%NULL%1,       Pietro%Gallotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%2,       Tingping%Wang%NULL%2,       Zhimin%Hu%NULL%2,       Xuan%Wang%NULL%2,       Zhengbin%Zhang%NULL%2,       Li%Li%NULL%3,       Peng%Peng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%0,       Tingping%Wang%NULL%0,       Zhimin%Hu%NULL%0,       Xuan%Wang%NULL%0,       Zhengbin%Zhang%NULL%0,       Li%Li%NULL%0,       Peng%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,       Wenlin%Cheng%NULL%1,       Lei%Yu%NULL%1,       Ya-Kun%Liu%NULL%1,       Xiaoyong%Hu%NULL%1,       Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Firouzé%Bani-Sadr%NULL%1,       Maxime%Hentzien%NULL%1,       Madeline%Pascard%NULL%1,       Yohan%N'Guyen%NULL%1,       Amélie%Servettaz%NULL%1,       Laurent%Andreoletti%NULL%1,       Lukshe%Kanagaratnam%NULL%1,       Damien%Jolly%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%2,       Austin R%Morrison%NULL%1,       Amit%Vahia%NULL%1,       Zachary R%Smith%NULL%1,       Zohra%Chaudhry%NULL%1,       Pallavi%Bhargava%NULL%1,       Joseph%Miller%NULL%1,       Rachel M%Kenney%NULL%1,       George%Alangaden%NULL%1,       Mayur S%Ramesh%mramesh1@hfhs.org%1,       Varidhi%Nauriyal%NULL%1,       Jayanth%Lakshmikanth%NULL%1,       Asif%Abdul Hamed%NULL%1,       Owais%Nadeem%NULL%1,       Kristin%Griebe%NULL%1,       Joseph M%Johnson%NULL%1,       Patrick%Bradley%NULL%1,       Junior%Uduman%NULL%1,       Sara%Hegab%NULL%1,       Jennifer%Swiderek%NULL%1,       Amanda%Godfrey%NULL%1,       Jeffrey%Jennings%NULL%1,       Jayna%Gardner-Gray%NULL%1,       Adam%Ackerman%NULL%1,       Jonathan%Lezotte%NULL%1,       Joseph%Ruhala%NULL%1,       Linoj%Samuel%NULL%1,       Robert J%Tibbetts%NULL%1,       Indira%Brar%NULL%1,       John%McKinnon%NULL%1,       Geehan%Suleyman%NULL%1,       Nicholas%Yared%NULL%1,       Erica%Herc%NULL%1,       Jonathan%Williams%NULL%1,       Odaliz Abreu%Lanfranco%NULL%1,       Anne%Chen%NULL%1,       Marcus%Zervos%NULL%1,       Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tomasz%Chroboczek%tchroboczek@gmail.com%1,       Marie%Lacoste%NULL%2,       Marie%Lacoste%NULL%0,       Chloe%Wackenheim%NULL%1,       Thibaut%Challan-Belval%NULL%1,       Benjamin%Amar%NULL%1,       Thomas%Boisson%NULL%1,       Jason%Hubac%NULL%1,       Dominique%Leduc%NULL%1,       Colleen%Masse%NULL%1,       Victor%Dechaene%NULL%1,       Laetitia%Touihri-Maximin%NULL%1,       Sandrine%Megessier%NULL%1,       Camille%Lassale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%2,       Maria Eduarda Leão%Farias%NULL%1,       Fernando Fonseca Almeida%Val%NULL%1,       Vanderson Souza%Sampaio%NULL%1,       Marcia Almeida Araújo%Alexandre%NULL%1,       Gisely Cardoso%Melo%NULL%1,       Izabella Picinin%Safe%NULL%1,       Mayla Gabriela Silva%Borba%NULL%1,       Rebeca Linhares%Abreu-Netto%NULL%1,       Alex Bezerra Silva%Maciel%NULL%1,       João Ricardo Silva%Neto%NULL%1,       Lucas Barbosa%Oliveira%NULL%1,       Erick Frota Gomes%Figueiredo%NULL%1,       Kelry Mazurega Oliveira%Dinelly%NULL%1,       Maria Gabriela de Almeida%Rodrigues%NULL%1,       Marcelo%Brito%NULL%1,       Maria Paula Gomes%Mourão%NULL%1,       Guilherme Augusto%Pivoto João%NULL%1,       Ludhmila Abrahão%Hajjar%NULL%1,       Quique%Bassat%NULL%1,       Gustavo Adolfo Sierra%Romero%NULL%1,       Felipe Gomes%Naveca%NULL%1,       Heline Lira%Vasconcelos%NULL%1,       Michel de Araújo%Tavares%NULL%1,       José Diego%Brito-Sousa%NULL%1,       Fabio Trindade Maranhão%Costa%NULL%1,       Maurício Lacerda%Nogueira%NULL%1,       Djane%Baía-da-Silva%NULL%1,       Mariana Simão%Xavier%NULL%1,       Wuelton Marcelo%Monteiro%NULL%1,       Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,       NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,       Weixia%Li%NULL%1,       Yinpeng%Jin%NULL%1,       Wei%Xu%NULL%1,       Chenlu%Huang%NULL%1,       Li%Li%NULL%0,       Yuxian%Huang%NULL%1,       Qingchun%Fu%fuqingchun@shphc.org.cn%1,       Liang%Chen%chenliang@shphc.org.cn%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%2,       Zhigang%Hu%NULL%1,       Xinyu%Song%songxinyu@ctgu.edu.cn%2,       Xinyu%Song%songxinyu@ctgu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Brian C%Nelson%brn9016@nyp.org%1,       Justin%Laracy%NULL%1,       Sherif%Shoucri%NULL%1,       Donald%Dietz%NULL%1,       Jason%Zucker%NULL%1,       Nina%Patel%NULL%1,       Magdalena E%Sobieszczyk%NULL%1,       Christine J%Kubin%NULL%1,       Angela%Gomez-Simmonds%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,        Bohan%Yang%NULL%1,        Qianwen%Li%NULL%1,        Lu%Wen%NULL%1,        Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%2,        Zhiguo%Zhang%NULL%2,        Zhiguo%Zhang%NULL%0,        Muqing%Yu%NULL%1,        Yu%Tao%NULL%1,        Min%Xie%xie_m@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Jianfeng%Wu%NULL%1,        Jianqiang%Huang%NULL%1,        Guochao%Zhu%NULL%1,        Yihao%Liu%NULL%1,        Han%Xiao%NULL%1,        Qian%Zhou%NULL%1,        Xiang%Si%NULL%1,        Hui%Yi%NULL%1,        Cuiping%Wang%NULL%1,        Daya%Yang%NULL%1,        Shuling%Chen%NULL%1,        Xin%Liu%NULL%1,        Zelong%Liu%NULL%1,        Qiongya%Wang%NULL%1,        Qingquan%Lv%NULL%1,        Ying%Huang%NULL%1,        Yang%Yu%NULL%1,        Xiangdong%Guan%NULL%1,        Yanbing%Li%NULL%1,        Krishnarajah%Nirantharakumar%NULL%1,        KarKeung%Cheng%NULL%1,        Sui%Peng%pengsui@vip.163.com%1,        Haipeng%Xiao%xiaohp@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kaijin%Xu%NULL%1,        Yanfei%Chen%NULL%1,        Jing%Yuan%NULL%1,        Ping%Yi%NULL%1,        Cheng%Ding%NULL%1,        Wenrui%Wu%NULL%2,        Yongtao%Li%NULL%1,        Qin%Ni%NULL%1,        Rongrong%Zou%NULL%1,        Xiaohe%Li%NULL%1,        Min%Xu%NULL%1,        Ying%Zhang%NULL%1,        Hong%Zhao%NULL%1,        Xuan%Zhang%NULL%1,        Liang%Yu%NULL%1,        Junwei%Su%NULL%1,        Guanjing%Lang%NULL%1,        Jun%Liu%NULL%1,        Xiaoxin%Wu%NULL%1,        Yongzheng%Guo%NULL%1,        Jingjing%Tao%NULL%1,        Ding%Shi%NULL%1,        Ling%Yu%NULL%1,        Qing%Cao%NULL%1,        Bing%Ruan%NULL%1,        Lei%Liu%NULL%1,        Zhaoqin%Wang%NULL%1,        Yan%Xu%NULL%1,        Yingxia%Liu%NULL%1,        Jifang%Sheng%NULL%2,        Lanjuan%Li%ljli@zju.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Stephen Su%Yang%stephen.yang@mail.mcgill.ca%1,        Jed%Lipes%NULL%2,        Jed%Lipes%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%2,        Shirong%Li%NULL%1,        Lingling%Pan%NULL%1,        Boris%Tefsen%NULL%1,        Yeshan%Li%NULL%1,        Neil%French%NULL%1,        Liyun%Chen%NULL%1,        Gang%Yang%NULL%1,        Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Salton%NULL%1,        Paola%Confalonieri%NULL%1,        G Umberto%Meduri%NULL%1,        Pierachille%Santus%NULL%1,        Sergio%Harari%NULL%1,        Raffaele%Scala%NULL%1,        Simone%Lanini%NULL%1,        Valentina%Vertui%NULL%1,        Tiberio%Oggionni%NULL%1,        Antonella%Caminati%NULL%1,        Vincenzo%Patruno%NULL%1,        Mario%Tamburrini%NULL%1,        Alessandro%Scartabellati%NULL%1,        Mara%Parati%NULL%1,        Massimiliano%Villani%NULL%1,        Dejan%Radovanovic%NULL%1,        Sara%Tomassetti%NULL%1,        Claudia%Ravaglia%NULL%1,        Venerino%Poletti%NULL%1,        Andrea%Vianello%NULL%1,        Anna Talia%Gaccione%NULL%1,        Luca%Guidelli%NULL%1,        Rita%Raccanelli%NULL%1,        Paolo%Lucernoni%NULL%1,        Donato%Lacedonia%NULL%1,        Maria Pia%Foschino Barbaro%NULL%1,        Stefano%Centanni%NULL%1,        Michele%Mondoni%NULL%1,        Matteo%Davì%NULL%1,        Alberto%Fantin%NULL%1,        Xueyuan%Cao%NULL%1,        Lucio%Torelli%NULL%1,        Antonella%Zucchetto%NULL%1,        Marcella%Montico%NULL%1,        Annalisa%Casarin%NULL%1,        Micaela%Romagnoli%NULL%1,        Stefano%Gasparini%NULL%1,        Martina%Bonifazi%NULL%1,        Pierlanfranco%D’Agaro%NULL%1,        Alessandro%Marcello%NULL%1,        Danilo%Licastro%NULL%1,        Barbara%Ruaro%NULL%1,        Maria Concetta%Volpe%NULL%1,        Reba%Umberger%NULL%1,        Marco%Confalonieri%mconfalonieri@units.it%1]</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%2,        Fang%Zheng%NULL%2,        Fang%Zheng%NULL%0,        Danfeng%Sun%NULL%1,        Yun%Ling%NULL%3,        Jun%Chen%NULL%1,        Feng%Li%NULL%2,        Feng%Li%NULL%0,        Tao%Li%NULL%2,        Zhiping%Qian%NULL%1,        Yuyi%Zhang%NULL%1,        Qingnian%Xu%NULL%1,        Li%Liu%NULL%1,        Qin%Huang%NULL%1,        Fei%Shan%NULL%1,        Lie%Xu%NULL%1,        Jun%Wu%NULL%1,        Zhaoqin%Zhu%NULL%1,        Zhigang%Song%NULL%1,        Shenyang%Li%NULL%1,        Yuxin%Shi%NULL%1,        Jianliang%Zhang%NULL%1,        Xueyun%Wu%NULL%1,        Joshua B.%Mendelsohn%NULL%2,        Joshua B.%Mendelsohn%NULL%0,        Tongyu%Zhu%NULL%1,        Hongzhou%Lu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[José Luis%Callejas Rubio%jlcalleja@telefonica.net%1,        Juan de Dios%Luna del Castillo%NULL%1,        Javier%de la Hera Fernández%NULL%1,        Emilio%Guirao Arrabal%NULL%1,        Manuel%Colmenero Ruiz%NULL%1,        Norberto%Ortego Centeno%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ding%Shi%NULL%1,        Wenrui%Wu%NULL%0,        Qing%Wang%NULL%1,        Kaijin%Xu%NULL%1,        Jiaojiao%Xie%NULL%1,        Jingjing%Wu%NULL%1,        Longxian%Lv%NULL%1,        Jifang%Sheng%NULL%0,        Jing%Guo%NULL%1,        Kaicen%Wang%NULL%1,        Daiqiong%Fang%NULL%1,        Yating%Li%NULL%1,        Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%2,        Weiwei%Jiang%NULL%1,        Qi%He%NULL%1,        Cheng%Wang%NULL%1,        Baoju%Wang%NULL%1,        Pan%Zhou%NULL%1,        Nianguo%Dong%dongnianguo63@gmail.com%1,        Qiaoxia%Tong%2013xh0859@hust.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%3,        Xian%Zhou%NULL%1,        Tao%Li%NULL%0,        Shiji%Chan%NULL%1,        Yiqi%Yu%NULL%1,        Jing-Wen%Ai%NULL%1,        Haocheng%Zhang%NULL%1,        Feng%Sun%NULL%1,        Qiran%Zhang%NULL%1,        Lei%Zhu%NULL%1,        Lingyun%Shao%NULL%1,        Bin%Xu%NULL%1,        Wenhong%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Liu%NULL%1,        Xiaobin%Zheng%NULL%1,        Yiying%Huang%NULL%1,        Hong%Shan%shanhong@mail.sysu.edu.cn%1,        Jin%Huang%hjin@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Xiang-Hong%Yang%NULL%1,        Ran-Ran%Li%NULL%1,        Ren-Hua%Sun%NULL%1,        Jiao%Liu%NULL%1,        De-Chang%Chen%NULL%1,        Peng%Lyu%NULL%2,        Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%2,        Taige%Chen%NULL%1,        Yang%Wang%NULL%1,        Jun%Wang%NULL%1,        Fangrong%Yan%f.r.yan@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Yiming%Ma%NULL%1,        Huihui%Zeng%NULL%1,        Zijie%Zhan%NULL%1,        Huanhuan%Lu%NULL%1,        Zihang%Zeng%NULL%1,        Chenjie%He%NULL%1,        Xiangming%Liu%NULL%1,        Chen%Chen%NULL%1,        Qingwu%Qin%NULL%1,        Jia%He%NULL%1,        Zhiguo%Zhou%NULL%1,        Peng%Huang%NULL%1,        Mingyan%Jiang%NULL%1,        Dingding%Deng%NULL%1,        Xin%Liao%NULL%1,        Zhi%Xiang%NULL%1,        Xiaoying%Huang%NULL%1,        Yan%Chen%NULL%1,        Ping%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Monil%Majmundar%NULL%1,        Tikal%Kansara%NULL%2,        Tikal%Kansara%NULL%0,        Joanna Marta%Lenik%NULL%1,        Hansang%Park%NULL%1,        Kuldeep%Ghosh%NULL%1,        Rajkumar%Doshi%NULL%1,        Palak%Shah%NULL%1,        Ashish%Kumar%NULL%1,        Hossam%Amin%NULL%2,        Hossam%Amin%NULL%0,        Shobhana%Chaudhari%NULL%1,        Imnett%Habtes%NULL%1,        Muhammad%Adrish%NULL%8,        Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Malgorzata%Mikulska%NULL%1,        Laura Ambra%Nicolini%NULL%2,        Laura Ambra%Nicolini%NULL%0,        Alessio%Signori%NULL%1,        Antonio%Di Biagio%NULL%1,        Chiara%Sepulcri%NULL%2,        Chiara%Sepulcri%NULL%0,        Chiara%Russo%NULL%1,        Silvia%Dettori%NULL%1,        Marco%Berruti%NULL%1,        Maria Pia%Sormani%NULL%1,        Daniele Roberto%Giacobbe%NULL%1,        Antonio%Vena%NULL%2,        Antonio%Vena%NULL%0,        Andrea%De Maria%NULL%1,        Chiara%Dentone%NULL%1,        Lucia%Taramasso%NULL%1,        Michele%Mirabella%NULL%2,        Michele%Mirabella%NULL%0,        Laura%Magnasco%NULL%1,        Sara%Mora%NULL%1,        Emanuele%Delfino%NULL%1,        Federica%Toscanini%NULL%1,        Elisa%Balletto%NULL%1,        Anna Ida%Alessandrini%NULL%1,        Federico%Baldi%NULL%1,        Federica%Briano%NULL%1,        Marco%Camera%NULL%1,        Ferdinando%Dodi%NULL%1,        Antonio%Ferrazin%NULL%1,        Laura%Labate%NULL%1,        Giovanni%Mazzarello%NULL%1,        Rachele%Pincino%NULL%1,        Federica%Portunato%NULL%1,        Stefania%Tutino%NULL%1,        Emanuela%Barisione%NULL%1,        Bianca%Bruzzone%NULL%1,        Andrea%Orsi%NULL%1,        Eva%Schenone%NULL%1,        Nirmala%Rosseti%NULL%1,        Elisabetta%Sasso%NULL%1,        Giorgio%Da Rin%NULL%1,        Paolo%Pelosi%NULL%1,        Sabrina%Beltramini%NULL%1,        Mauro%Giacomini%NULL%1,        Giancarlo%Icardi%NULL%2,        Giancarlo%Icardi%NULL%0,        Angelo%Gratarola%NULL%1,        Matteo%Bassetti%NULL%1,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%2,        Yi%Yang%NULL%1,        Futai%Shang%NULL%1,        Yishan%Zheng%NULL%1,        Wenjing%Zhao%NULL%1,        Liang%Luo%NULL%1,        Xudong%Han%NULL%1,        Aihua%Lin%NULL%1,        Hongsheng%Zhao%NULL%1,        Qing%Gu%NULL%1,        Yi%Shi%NULL%1,        Jun%Li%NULL%1,        Xingxiang%Xu%NULL%1,        Kexi%Liu%NULL%1,        YiJun%Deng%NULL%1,        Quan%Cao%NULL%1,        Weiwei%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%4,        Yun%Ling%NULL%0,        Yun%Ling%NULL%0,        Tao%Bai%NULL%2,        Tao%Bai%NULL%0,        Yusang%Xie%NULL%1,        Jie%Huang%NULL%2,        Jie%Huang%NULL%0,        Jian%Li%NULL%1,        Weining%Xiong%NULL%1,        Dexiang%Yang%NULL%1,        Rong%Chen%NULL%1,        Fangying%Lu%NULL%1,        Yunfei%Lu%NULL%1,        Xuhui%Liu%NULL%1,        Yuqing%Chen%NULL%2,        Yuqing%Chen%NULL%0,        Xin%Li%NULL%1,        Yong%Li%NULL%1,        Hanssa Dwarka%Summah%NULL%1,        Huihuang%Lin%NULL%1,        Jiayang%Yan%NULL%1,        Min%Zhou%NULL%1,        Hongzhou%Lu%NULL%0,        Hongzhou%Lu%NULL%0,        Jieming%Qu%NULL%2,        Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana%Fernández-Cruz%NULL%1,        Belén%Ruiz-Antorán%NULL%2,        Belén%Ruiz-Antorán%NULL%0,        Ana%Muñoz-Gómez%NULL%1,        Aránzazu%Sancho-López%NULL%1,        Patricia%Mills-Sánchez%NULL%1,        Gustavo Adolfo%Centeno-Soto%NULL%1,        Silvia%Blanco-Alonso%NULL%1,        Laura%Javaloyes-Garachana%NULL%1,        Amy%Galán-Gómez%NULL%1,        Ángela%Valencia-Alijo%NULL%1,        Javier%Gómez-Irusta%NULL%1,        Concepción%Payares-Herrera%NULL%1,        Ignacio%Morrás-Torre%NULL%1,        Enrique%Sánchez-Chica%NULL%1,        Laura%Delgado-Téllez-de-Cepeda%NULL%1,        Alejandro%Callejas-Díaz%NULL%1,        Antonio%Ramos-Martínez%NULL%1,        Elena%Múñez-Rubio%NULL%2,        Elena%Múñez-Rubio%NULL%0,        Cristina%Avendaño-Solá%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carmine%Gazzaruso%c.gazzaruso@gmail.com%1,        Nicoletta%Carlo Stella%NULL%2,        Nicoletta%Carlo Stella%NULL%0,        Giuseppe%Mariani%NULL%1,        Anna%Tamburlini%NULL%1,        Pietro%Garini%NULL%1,        Elena%Freddi%NULL%1,        Carolina%Ravetto%NULL%1,        Adriana%Coppola%NULL%1,        Pietro%Gallotti%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%2,        Tingping%Wang%NULL%2,        Zhimin%Hu%NULL%2,        Xuan%Wang%NULL%2,        Zhengbin%Zhang%NULL%2,        Li%Li%NULL%3,        Peng%Peng%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%0,        Tingping%Wang%NULL%0,        Zhimin%Hu%NULL%0,        Xuan%Wang%NULL%0,        Zhengbin%Zhang%NULL%0,        Li%Li%NULL%0,        Peng%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,        Wenlin%Cheng%NULL%1,        Lei%Yu%NULL%1,        Ya-Kun%Liu%NULL%1,        Xiaoyong%Hu%NULL%1,        Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Firouzé%Bani-Sadr%NULL%1,        Maxime%Hentzien%NULL%1,        Madeline%Pascard%NULL%1,        Yohan%N'Guyen%NULL%1,        Amélie%Servettaz%NULL%1,        Laurent%Andreoletti%NULL%1,        Lukshe%Kanagaratnam%NULL%1,        Damien%Jolly%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%2,        Austin R%Morrison%NULL%1,        Amit%Vahia%NULL%1,        Zachary R%Smith%NULL%1,        Zohra%Chaudhry%NULL%1,        Pallavi%Bhargava%NULL%1,        Joseph%Miller%NULL%1,        Rachel M%Kenney%NULL%1,        George%Alangaden%NULL%1,        Mayur S%Ramesh%mramesh1@hfhs.org%1,        Varidhi%Nauriyal%NULL%1,        Jayanth%Lakshmikanth%NULL%1,        Asif%Abdul Hamed%NULL%1,        Owais%Nadeem%NULL%1,        Kristin%Griebe%NULL%1,        Joseph M%Johnson%NULL%1,        Patrick%Bradley%NULL%1,        Junior%Uduman%NULL%1,        Sara%Hegab%NULL%1,        Jennifer%Swiderek%NULL%1,        Amanda%Godfrey%NULL%1,        Jeffrey%Jennings%NULL%1,        Jayna%Gardner-Gray%NULL%1,        Adam%Ackerman%NULL%1,        Jonathan%Lezotte%NULL%1,        Joseph%Ruhala%NULL%1,        Linoj%Samuel%NULL%1,        Robert J%Tibbetts%NULL%1,        Indira%Brar%NULL%1,        John%McKinnon%NULL%1,        Geehan%Suleyman%NULL%1,        Nicholas%Yared%NULL%1,        Erica%Herc%NULL%1,        Jonathan%Williams%NULL%1,        Odaliz Abreu%Lanfranco%NULL%1,        Anne%Chen%NULL%1,        Marcus%Zervos%NULL%1,        Eric%Scher%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tomasz%Chroboczek%tchroboczek@gmail.com%1,        Marie%Lacoste%NULL%2,        Marie%Lacoste%NULL%0,        Chloe%Wackenheim%NULL%1,        Thibaut%Challan-Belval%NULL%1,        Benjamin%Amar%NULL%1,        Thomas%Boisson%NULL%1,        Jason%Hubac%NULL%1,        Dominique%Leduc%NULL%1,        Colleen%Masse%NULL%1,        Victor%Dechaene%NULL%1,        Laetitia%Touihri-Maximin%NULL%1,        Sandrine%Megessier%NULL%1,        Camille%Lassale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%2,        Maria Eduarda Leão%Farias%NULL%1,        Fernando Fonseca Almeida%Val%NULL%1,        Vanderson Souza%Sampaio%NULL%1,        Marcia Almeida Araújo%Alexandre%NULL%1,        Gisely Cardoso%Melo%NULL%1,        Izabella Picinin%Safe%NULL%1,        Mayla Gabriela Silva%Borba%NULL%1,        Rebeca Linhares%Abreu-Netto%NULL%1,        Alex Bezerra Silva%Maciel%NULL%1,        João Ricardo Silva%Neto%NULL%1,        Lucas Barbosa%Oliveira%NULL%1,        Erick Frota Gomes%Figueiredo%NULL%1,        Kelry Mazurega Oliveira%Dinelly%NULL%1,        Maria Gabriela de Almeida%Rodrigues%NULL%1,        Marcelo%Brito%NULL%1,        Maria Paula Gomes%Mourão%NULL%1,        Guilherme Augusto%Pivoto João%NULL%1,        Ludhmila Abrahão%Hajjar%NULL%1,        Quique%Bassat%NULL%1,        Gustavo Adolfo Sierra%Romero%NULL%1,        Felipe Gomes%Naveca%NULL%1,        Heline Lira%Vasconcelos%NULL%1,        Michel de Araújo%Tavares%NULL%1,        José Diego%Brito-Sousa%NULL%1,        Fabio Trindade Maranhão%Costa%NULL%1,        Maurício Lacerda%Nogueira%NULL%1,        Djane%Baía-da-Silva%NULL%1,        Mariana Simão%Xavier%NULL%1,        Wuelton Marcelo%Monteiro%NULL%1,        Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%1,        NULL%NULL%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%1,        Weixia%Li%NULL%1,        Yinpeng%Jin%NULL%1,        Wei%Xu%NULL%1,        Chenlu%Huang%NULL%1,        Li%Li%NULL%0,        Yuxian%Huang%NULL%1,        Qingchun%Fu%fuqingchun@shphc.org.cn%1,        Liang%Chen%chenliang@shphc.org.cn%1]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%2,        Zhigang%Hu%NULL%1,        Xinyu%Song%songxinyu@ctgu.edu.cn%2,        Xinyu%Song%songxinyu@ctgu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Brian C%Nelson%brn9016@nyp.org%1,        Justin%Laracy%NULL%1,        Sherif%Shoucri%NULL%1,        Donald%Dietz%NULL%1,        Jason%Zucker%NULL%1,        Nina%Patel%NULL%1,        Magdalena E%Sobieszczyk%NULL%1,        Christine J%Kubin%NULL%1,        Angela%Gomez-Simmonds%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0, Bohan%Yang%NULL%0, Qianwen%Li%NULL%0, Lu%Wen%NULL%0, Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Ke%Wang%NULL%0, Zhiguo%Zhang%NULL%0, Zhiguo%Zhang%NULL%0, Muqing%Yu%NULL%0, Yu%Tao%NULL%0, Min%Xie%xie_m@126.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Jianfeng%Wu%NULL%0, Jianqiang%Huang%NULL%1, Guochao%Zhu%NULL%0, Yihao%Liu%NULL%1, Han%Xiao%NULL%0, Qian%Zhou%NULL%1, Xiang%Si%NULL%1, Hui%Yi%NULL%1, Cuiping%Wang%NULL%1, Daya%Yang%NULL%1, Shuling%Chen%NULL%1, Xin%Liu%NULL%0, Zelong%Liu%NULL%1, Qiongya%Wang%NULL%1, Qingquan%Lv%NULL%1, Ying%Huang%NULL%1, Yang%Yu%NULL%0, Xiangdong%Guan%NULL%1, Yanbing%Li%NULL%1, Krishnarajah%Nirantharakumar%NULL%0, KarKeung%Cheng%NULL%1, Sui%Peng%pengsui@vip.163.com%1, Haipeng%Xiao%xiaohp@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kaijin%Xu%NULL%0, Yanfei%Chen%NULL%2, Jing%Yuan%NULL%5, Ping%Yi%NULL%1, Cheng%Ding%NULL%1, Wenrui%Wu%NULL%2, Yongtao%Li%NULL%1, Qin%Ni%NULL%1, Rongrong%Zou%NULL%1, Xiaohe%Li%NULL%1, Min%Xu%NULL%2, Ying%Zhang%NULL%1, Hong%Zhao%NULL%2, Xuan%Zhang%NULL%1, Liang%Yu%NULL%1, Junwei%Su%NULL%1, Guanjing%Lang%NULL%1, Jun%Liu%NULL%0, Xiaoxin%Wu%NULL%1, Yongzheng%Guo%NULL%1, Jingjing%Tao%NULL%1, Ding%Shi%NULL%0, Ling%Yu%NULL%1, Qing%Cao%NULL%1, Bing%Ruan%NULL%1, Lei%Liu%NULL%0, Zhaoqin%Wang%NULL%0, Yan%Xu%NULL%1, Yingxia%Liu%NULL%0, Jifang%Sheng%NULL%7, Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Stephen Su%Yang%stephen.yang@mail.mcgill.ca%0, Jed%Lipes%NULL%2, Jed%Lipes%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t>[Lei%Zha%NULL%0, Shirong%Li%NULL%2, Lingling%Pan%NULL%2, Boris%Tefsen%NULL%2, Yeshan%Li%NULL%3, Neil%French%NULL%2, Liyun%Chen%NULL%2, Gang%Yang%NULL%2, Elmer V%Villanueva%Villanueva@xjtlu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Francesco%Salton%NULL%0, Paola%Confalonieri%NULL%1, G Umberto%Meduri%NULL%1, Pierachille%Santus%NULL%1, Sergio%Harari%NULL%1, Raffaele%Scala%NULL%1, Simone%Lanini%NULL%1, Valentina%Vertui%NULL%1, Tiberio%Oggionni%NULL%1, Antonella%Caminati%NULL%1, Vincenzo%Patruno%NULL%1, Mario%Tamburrini%NULL%1, Alessandro%Scartabellati%NULL%0, Mara%Parati%NULL%1, Massimiliano%Villani%NULL%1, Dejan%Radovanovic%NULL%1, Sara%Tomassetti%NULL%1, Claudia%Ravaglia%NULL%1, Venerino%Poletti%NULL%1, Andrea%Vianello%NULL%1, Anna Talia%Gaccione%NULL%1, Luca%Guidelli%NULL%1, Rita%Raccanelli%NULL%1, Paolo%Lucernoni%NULL%1, Donato%Lacedonia%NULL%1, Maria Pia%Foschino Barbaro%NULL%1, Stefano%Centanni%NULL%1, Michele%Mondoni%NULL%1, Matteo%Davì%NULL%1, Alberto%Fantin%NULL%1, Xueyuan%Cao%NULL%1, Lucio%Torelli%NULL%1, Antonella%Zucchetto%NULL%1, Marcella%Montico%NULL%1, Annalisa%Casarin%NULL%1, Micaela%Romagnoli%NULL%1, Stefano%Gasparini%NULL%1, Martina%Bonifazi%NULL%1, Pierlanfranco%D’Agaro%NULL%1, Alessandro%Marcello%NULL%1, Danilo%Licastro%NULL%1, Barbara%Ruaro%NULL%1, Maria Concetta%Volpe%NULL%1, Reba%Umberger%NULL%1, Marco%Confalonieri%mconfalonieri@units.it%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Novel coronavirus pneumonia (COVID-19) is prevalent around the world.
+ We aimed to describe epidemiological features and clinical course in Shanghai.
+</t>
+  </si>
+  <si>
+    <t>[Yinzhong%Shen%NULL%0, Fang%Zheng%NULL%0, Fang%Zheng%NULL%0, Danfeng%Sun%NULL%2, Yun%Ling%NULL%0, Jun%Chen%NULL%0, Feng%Li%NULL%0, Feng%Li%NULL%0, Tao%Li%NULL%0, Zhiping%Qian%NULL%0, Yuyi%Zhang%NULL%0, Qingnian%Xu%NULL%0, Li%Liu%NULL%0, Qin%Huang%NULL%2, Fei%Shan%NULL%0, Lie%Xu%NULL%2, Jun%Wu%NULL%2, Zhaoqin%Zhu%NULL%2, Zhigang%Song%NULL%0, Shenyang%Li%NULL%2, Yuxin%Shi%NULL%0, Jianliang%Zhang%NULL%2, Xueyun%Wu%NULL%2, Joshua B.%Mendelsohn%NULL%4, Joshua B.%Mendelsohn%NULL%0, Tongyu%Zhu%NULL%0, Hongzhou%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Taylor &amp;amp; Francis</t>
+  </si>
+  <si>
+    <t>[José Luis%Callejas Rubio%jlcalleja@telefonica.net%0, Juan de Dios%Luna del Castillo%NULL%1, Javier%de la Hera Fernández%NULL%1, Emilio%Guirao Arrabal%NULL%1, Manuel%Colmenero Ruiz%NULL%1, Norberto%Ortego Centeno%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier España, S.L.U.</t>
+  </si>
+  <si>
+    <t>[Ding%Shi%NULL%0, Wenrui%Wu%NULL%0, Qing%Wang%NULL%1, Kaijin%Xu%NULL%0, Jiaojiao%Xie%NULL%1, Jingjing%Wu%NULL%1, Longxian%Lv%NULL%2, Jifang%Sheng%NULL%0, Jing%Guo%NULL%0, Kaicen%Wang%NULL%1, Daiqiong%Fang%NULL%1, Yating%Li%NULL%1, Lanjuan%Li%ljli@zju.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Yin%Wang%NULL%0, Weiwei%Jiang%NULL%2, Qi%He%NULL%2, Cheng%Wang%NULL%4, Baoju%Wang%NULL%2, Pan%Zhou%NULL%2, Nianguo%Dong%dongnianguo63@gmail.com%2, Qiaoxia%Tong%2013xh0859@hust.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critically ill patients with coronavirus diseases 2019 (COVID-19) are of grave concern.
+Those patients usually underwent a stage of excessive inflammation before developing acute
+respiratory distress syndrome.
+ In this study, we test the hypothesis that short-term,
+low-to-moderate-dose corticosteroids would benefit patients when used in the early phase
+of excessive inflammation, namely, the therapeutic window.
+ Among a Shanghai cohort and a
+validation cohort, we enrolled COVID-19 patients showing marked radiographic progression.
+Short-term, low-to-moderate-dose corticosteroids were considered for them.
+ After
+identifying the possible markers for the therapeutic window, we then divided the patients,
+based on whether they were treated with corticosteroids within the therapeutic window,
+into the early-start group and control group.
+ We identified that the therapeutic window
+for corticosteroids was characterized by a marked radiographic progression and lactase
+dehydrogenase (LDH) less than two times the upper limit of normal (ULN).
+ The Shanghai
+cohort comprised of 68 patients, including 47 in the early-start group and 21 in the
+control group.
+ The proportion of patients requiring invasive mechanical ventilation was
+significantly lower in the early-start group than in the control group (10.6% vs.
+ 33.3%,
+difference, 22.7%, 95% confidence interval 2.6–44.8%).
+ Among the validation cohort of 51
+patients, similar difference of the primary outcome was observed (45.0% vs.
+ 74.2%, P = 0.035).
+ Among COVID-19 patients with marked radiologic
+progression, short-term, low-to-moderate-dose corticosteroids benefits patients with LDH
+levels of less than two times the ULN, who may be in the early phase of excessive
+inflammation.
+</t>
+  </si>
+  <si>
+    <t>[Yang%Li%NULL%0, Xian%Zhou%NULL%0, Tao%Li%NULL%0, Shiji%Chan%NULL%1, Yiqi%Yu%NULL%2, Jing-Wen%Ai%NULL%2, Haocheng%Zhang%NULL%0, Feng%Sun%NULL%1, Qiran%Zhang%NULL%1, Lei%Zhu%NULL%3, Lingyun%Shao%NULL%1, Bin%Xu%NULL%1, Wenhong%Zhang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jing%Liu%NULL%0, Xiaobin%Zheng%NULL%0, Yiying%Huang%NULL%1, Hong%Shan%shanhong@mail.sysu.edu.cn%0, Jin%Huang%hjin@mail.sysu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>American Academy of Allergy, Asthma &amp;amp; Immunology</t>
+  </si>
+  <si>
+    <t>[Xiang-Hong%Yang%NULL%0, Ran-Ran%Li%NULL%1, Ren-Hua%Sun%NULL%1, Jiao%Liu%NULL%0, De-Chang%Chen%NULL%1, Peng%Lyu%NULL%6, Peng%Lyu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Xiaofan%Lu%NULL%0, Taige%Chen%NULL%3, Yang%Wang%NULL%0, Jun%Wang%NULL%6, Fangrong%Yan%f.r.yan@163.com%4]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Yiming%Ma%NULL%0, Huihui%Zeng%NULL%1, Zijie%Zhan%NULL%1, Huanhuan%Lu%NULL%1, Zihang%Zeng%NULL%1, Chenjie%He%NULL%1, Xiangming%Liu%NULL%1, Chen%Chen%NULL%0, Qingwu%Qin%NULL%1, Jia%He%NULL%1, Zhiguo%Zhou%NULL%2, Peng%Huang%NULL%0, Mingyan%Jiang%NULL%1, Dingding%Deng%NULL%1, Xin%Liao%NULL%1, Zhi%Xiang%NULL%1, Xiaoying%Huang%NULL%1, Yan%Chen%NULL%0, Ping%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Monil%Majmundar%NULL%0, Tikal%Kansara%NULL%2, Tikal%Kansara%NULL%0, Joanna Marta%Lenik%NULL%1, Hansang%Park%NULL%1, Kuldeep%Ghosh%NULL%1, Rajkumar%Doshi%NULL%2, Palak%Shah%NULL%1, Ashish%Kumar%NULL%1, Hossam%Amin%NULL%2, Hossam%Amin%NULL%0, Shobhana%Chaudhari%NULL%1, Imnett%Habtes%NULL%1, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Malgorzata%Mikulska%NULL%0, Laura Ambra%Nicolini%NULL%2, Laura Ambra%Nicolini%NULL%0, Alessio%Signori%NULL%0, Antonio%Di Biagio%NULL%1, Chiara%Sepulcri%NULL%2, Chiara%Sepulcri%NULL%0, Chiara%Russo%NULL%1, Silvia%Dettori%NULL%1, Marco%Berruti%NULL%1, Maria Pia%Sormani%NULL%1, Daniele Roberto%Giacobbe%NULL%0, Antonio%Vena%NULL%0, Antonio%Vena%NULL%0, Andrea%De Maria%NULL%0, Chiara%Dentone%NULL%2, Lucia%Taramasso%NULL%1, Michele%Mirabella%NULL%2, Michele%Mirabella%NULL%0, Laura%Magnasco%NULL%1, Sara%Mora%NULL%1, Emanuele%Delfino%NULL%1, Federica%Toscanini%NULL%1, Elisa%Balletto%NULL%1, Anna Ida%Alessandrini%NULL%1, Federico%Baldi%NULL%1, Federica%Briano%NULL%1, Marco%Camera%NULL%1, Ferdinando%Dodi%NULL%1, Antonio%Ferrazin%NULL%1, Laura%Labate%NULL%1, Giovanni%Mazzarello%NULL%1, Rachele%Pincino%NULL%1, Federica%Portunato%NULL%1, Stefania%Tutino%NULL%1, Emanuela%Barisione%NULL%2, Bianca%Bruzzone%NULL%1, Andrea%Orsi%NULL%1, Eva%Schenone%NULL%1, Nirmala%Rosseti%NULL%1, Elisabetta%Sasso%NULL%1, Giorgio%Da Rin%NULL%1, Paolo%Pelosi%NULL%0, Sabrina%Beltramini%NULL%1, Mauro%Giacomini%NULL%1, Giancarlo%Icardi%NULL%2, Giancarlo%Icardi%NULL%0, Angelo%Gratarola%NULL%1, Matteo%Bassetti%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mao%Huang%NULL%0, Yi%Yang%NULL%2, Futai%Shang%NULL%2, Yishan%Zheng%NULL%0, Wenjing%Zhao%NULL%2, Liang%Luo%NULL%2, Xudong%Han%NULL%2, Aihua%Lin%NULL%2, Hongsheng%Zhao%NULL%2, Qing%Gu%NULL%2, Yi%Shi%NULL%2, Jun%Li%NULL%2, Xingxiang%Xu%NULL%2, Kexi%Liu%NULL%2, YiJun%Deng%NULL%2, Quan%Cao%NULL%2, Weiwei%Wang%NULL%2]</t>
+  </si>
+  <si>
+    <t>Southern Society for Clinical Investigation. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The coronavirus disease (COVID-19) pandemic is now a global health concern.
+</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0, Yun%Ling%NULL%0, Yun%Ling%NULL%0, Tao%Bai%NULL%10, Tao%Bai%NULL%0, Yusang%Xie%NULL%4, Jie%Huang%NULL%8, Jie%Huang%NULL%0, Jian%Li%NULL%4, Weining%Xiong%NULL%4, Dexiang%Yang%NULL%4, Rong%Chen%NULL%0, Fangying%Lu%NULL%4, Yunfei%Lu%NULL%5, Xuhui%Liu%NULL%4, Yuqing%Chen%NULL%8, Yuqing%Chen%NULL%0, Xin%Li%NULL%0, Yong%Li%NULL%0, Hanssa Dwarka%Summah%NULL%4, Huihuang%Lin%NULL%4, Jiayang%Yan%NULL%4, Min%Zhou%NULL%0, Hongzhou%Lu%NULL%0, Hongzhou%Lu%NULL%0, Jieming%Qu%NULL%0, Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evidence to support the use of steroids in coronavirus disease 2019 (COVID-19) pneumonia is lacking.
+ We aim to determine the impact of steroid use for COVID-19 pneumonia on hospital mortality.
+ We performed a single-center retrospective cohort study in a university hospital in Madrid, Spain, during March of 2020. To determine the role of steroids in in-hospital mortality, patients admitted with severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) pneumonia and treated with steroids were compared to patients not treated with steroids, and we adjusted with a propensity score for patients on steroid treatment.
+</t>
+  </si>
+  <si>
+    <t>[Ana%Fernández-Cruz%NULL%0, Belén%Ruiz-Antorán%NULL%2, Belén%Ruiz-Antorán%NULL%0, Ana%Muñoz-Gómez%NULL%1, Aránzazu%Sancho-López%NULL%1, Patricia%Mills-Sánchez%NULL%1, Gustavo Adolfo%Centeno-Soto%NULL%1, Silvia%Blanco-Alonso%NULL%1, Laura%Javaloyes-Garachana%NULL%1, Amy%Galán-Gómez%NULL%1, Ángela%Valencia-Alijo%NULL%1, Javier%Gómez-Irusta%NULL%1, Concepción%Payares-Herrera%NULL%1, Ignacio%Morrás-Torre%NULL%1, Enrique%Sánchez-Chica%NULL%1, Laura%Delgado-Téllez-de-Cepeda%NULL%1, Alejandro%Callejas-Díaz%NULL%1, Antonio%Ramos-Martínez%NULL%1, Elena%Múñez-Rubio%NULL%2, Elena%Múñez-Rubio%NULL%0, Cristina%Avendaño-Solá%NULL%1]</t>
+  </si>
+  <si>
+    <t>American Society for Microbiology</t>
+  </si>
+  <si>
+    <t>[Carmine%Gazzaruso%c.gazzaruso@gmail.com%0, Nicoletta%Carlo Stella%NULL%2, Nicoletta%Carlo Stella%NULL%0, Giuseppe%Mariani%NULL%1, Anna%Tamburlini%NULL%1, Pietro%Garini%NULL%1, Elena%Freddi%NULL%1, Carolina%Ravetto%NULL%1, Adriana%Coppola%NULL%1, Pietro%Gallotti%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The clinical efficacy of glucocorticoid therapy on the treatment of patients with Coronavirus Disease 2019 (COVID-19) pneumonia was investigated.
+ This retrospective study showed glucocorticoid therapy did not significantly influence the clinical course of COVID-19 pneumonia, including imaging progress and the time duration for negative transformation of nucleic acid, and glucocorticoid therapy did not significantly influence the outcomes nor the adverse events of COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Yan%Hu%NULL%0, Tingping%Wang%NULL%2, Zhimin%Hu%NULL%2, Xuan%Wang%NULL%0, Zhengbin%Zhang%NULL%2, Li%Li%NULL%0, Peng%Peng%NULL%0]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Masson SAS.</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0, Wenlin%Cheng%NULL%0, Lei%Yu%NULL%0, Ya-Kun%Liu%NULL%0, Xiaoyong%Hu%NULL%0, Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-inflammatory drugs such as corticosteroids may beneficially modulate the host inflammatory response to coronavirus disease 2019 (COVID-19) pneumonia.
+ The aim of this study was to evaluate the impact of addition of corticosteroids to the hospital protocol for treatment of suspected or confirmed COVID-19 pneumonia on rates of death or intensive care unit (ICU) admission.
+ A before–after study was performed to evaluate the effect of addition of corticosteroids to our institution's COVID-19 treatment protocol on hospital mortality.
+ A total of 257 patients with a COVID-19 diagnosis were included in this study between 3 March 2020 and 14 April 2020. As corticosteroids were widely used after 27 March 2020, two periods were considered for the purposes of this study: the ‘before’ period from 3–20 March 2020 (n = 85); and the ‘after’ period from 26 March–14 April 2020 (n = 172).
+ The ‘after’ period was associated with a lower risk of death [adjusted hazard ratio (aHR) = 0.47, 95% confidence interval (CI) 0.23–0.97; P = 0.04] and a lower risk of ICU admission or of death before ICU admission (aHR = 0.37, 95% CI 0.21–0.64; P = 0.0005) by multivariate analysis adjusted for age, National Early Warning score and institutionalisation status.
+ In conclusion, addition of corticosteroids to our institution's COVID-19 treatment protocol was associated with a significant reduction in hospital mortality in the ‘after’ period.
+</t>
+  </si>
+  <si>
+    <t>[Firouzé%Bani-Sadr%NULL%0, Maxime%Hentzien%NULL%1, Madeline%Pascard%NULL%1, Yohan%N'Guyen%NULL%1, Amélie%Servettaz%NULL%1, Laurent%Andreoletti%NULL%1, Lukshe%Kanagaratnam%NULL%1, Damien%Jolly%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V. and International Society of Chemotherapy.</t>
+  </si>
+  <si>
+    <t>[Raef%Fadel%NULL%0, Austin R%Morrison%NULL%2, Amit%Vahia%NULL%3, Zachary R%Smith%NULL%2, Zohra%Chaudhry%NULL%3, Pallavi%Bhargava%NULL%2, Joseph%Miller%NULL%3, Rachel M%Kenney%NULL%2, George%Alangaden%NULL%3, Mayur S%Ramesh%mramesh1@hfhs.org%2, Varidhi%Nauriyal%NULL%2, Jayanth%Lakshmikanth%NULL%2, Asif%Abdul Hamed%NULL%2, Owais%Nadeem%NULL%2, Kristin%Griebe%NULL%2, Joseph M%Johnson%NULL%2, Patrick%Bradley%NULL%2, Junior%Uduman%NULL%2, Sara%Hegab%NULL%2, Jennifer%Swiderek%NULL%2, Amanda%Godfrey%NULL%2, Jeffrey%Jennings%NULL%2, Jayna%Gardner-Gray%NULL%2, Adam%Ackerman%NULL%2, Jonathan%Lezotte%NULL%2, Joseph%Ruhala%NULL%2, Linoj%Samuel%NULL%2, Robert J%Tibbetts%NULL%2, Indira%Brar%NULL%3, John%McKinnon%NULL%2, Geehan%Suleyman%NULL%0, Nicholas%Yared%NULL%2, Erica%Herc%NULL%2, Jonathan%Williams%NULL%2, Odaliz Abreu%Lanfranco%NULL%2, Anne%Chen%NULL%0, Marcus%Zervos%NULL%2, Eric%Scher%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Tomasz%Chroboczek%tchroboczek@gmail.com%0, Marie%Lacoste%NULL%2, Marie%Lacoste%NULL%0, Chloe%Wackenheim%NULL%1, Thibaut%Challan-Belval%NULL%1, Benjamin%Amar%NULL%1, Thomas%Boisson%NULL%1, Jason%Hubac%NULL%1, Dominique%Leduc%NULL%1, Colleen%Masse%NULL%1, Victor%Dechaene%NULL%1, Laetitia%Touihri-Maximin%NULL%1, Sandrine%Megessier%NULL%1, Camille%Lassale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Christiane Maria Prado%Jeronimo%NULL%0, Maria Eduarda Leão%Farias%NULL%2, Fernando Fonseca Almeida%Val%NULL%2, Vanderson Souza%Sampaio%NULL%2, Marcia Almeida Araújo%Alexandre%NULL%2, Gisely Cardoso%Melo%NULL%2, Izabella Picinin%Safe%NULL%2, Mayla Gabriela Silva%Borba%NULL%2, Rebeca Linhares%Abreu-Netto%NULL%2, Alex Bezerra Silva%Maciel%NULL%2, João Ricardo Silva%Neto%NULL%2, Lucas Barbosa%Oliveira%NULL%2, Erick Frota Gomes%Figueiredo%NULL%2, Kelry Mazurega Oliveira%Dinelly%NULL%2, Maria Gabriela de Almeida%Rodrigues%NULL%2, Marcelo%Brito%NULL%2, Maria Paula Gomes%Mourão%NULL%2, Guilherme Augusto%Pivoto João%NULL%2, Ludhmila Abrahão%Hajjar%NULL%2, Quique%Bassat%NULL%2, Gustavo Adolfo Sierra%Romero%NULL%2, Felipe Gomes%Naveca%NULL%2, Heline Lira%Vasconcelos%NULL%2, Michel de Araújo%Tavares%NULL%2, José Diego%Brito-Sousa%NULL%2, Fabio Trindade Maranhão%Costa%NULL%2, Maurício Lacerda%Nogueira%NULL%2, Djane%Baía-da-Silva%NULL%2, Mariana Simão%Xavier%NULL%2, Wuelton Marcelo%Monteiro%NULL%2, Marcus Vinícius Guimarães%Lacerda%marcuslacerda.br@gmail.com%2, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Qiang%Li%NULL%0, Weixia%Li%NULL%1, Yinpeng%Jin%NULL%1, Wei%Xu%NULL%0, Chenlu%Huang%NULL%1, Li%Li%NULL%0, Yuxian%Huang%NULL%1, Qingchun%Fu%fuqingchun@shphc.org.cn%1, Liang%Chen%chenliang@shphc.org.cn%0]</t>
+  </si>
+  <si>
+    <t>Springer Healthcare</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0, Zhigang%Hu%NULL%1, Xinyu%Song%songxinyu@ctgu.edu.cn%2, Xinyu%Song%songxinyu@ctgu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Brian C%Nelson%brn9016@nyp.org%0, Justin%Laracy%NULL%1, Sherif%Shoucri%NULL%1, Donald%Dietz%NULL%1, Jason%Zucker%NULL%1, Nina%Patel%NULL%1, Magdalena E%Sobieszczyk%NULL%6, Christine J%Kubin%NULL%1, Angela%Gomez-Simmonds%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1963,22 +2367,22 @@
         <v>44013.0</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
         <v>58</v>
@@ -2001,7 +2405,7 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -2013,10 +2417,10 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4">
@@ -2033,7 +2437,7 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>348</v>
+        <v>449</v>
       </c>
       <c r="F4" t="s">
         <v>60</v>
@@ -2045,10 +2449,10 @@
         <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5">
@@ -2065,7 +2469,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>451</v>
       </c>
       <c r="F5" t="s">
         <v>65</v>
@@ -2077,10 +2481,10 @@
         <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6">
@@ -2097,7 +2501,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -2109,10 +2513,10 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7">
@@ -2129,7 +2533,7 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -2141,10 +2545,10 @@
         <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8">
@@ -2161,7 +2565,7 @@
         <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>352</v>
+        <v>455</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -2173,10 +2577,10 @@
         <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9">
@@ -2193,7 +2597,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>457</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -2205,10 +2609,10 @@
         <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10">
@@ -2222,10 +2626,10 @@
         <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>458</v>
       </c>
       <c r="E10" t="s">
-        <v>354</v>
+        <v>459</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -2237,10 +2641,10 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11">
@@ -2257,7 +2661,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2269,10 +2673,10 @@
         <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12">
@@ -2289,7 +2693,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>356</v>
+        <v>463</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -2301,10 +2705,10 @@
         <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13">
@@ -2321,7 +2725,7 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>464</v>
       </c>
       <c r="F13" t="s">
         <v>100</v>
@@ -2333,10 +2737,10 @@
         <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14">
@@ -2350,10 +2754,10 @@
         <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>466</v>
       </c>
       <c r="E14" t="s">
-        <v>358</v>
+        <v>467</v>
       </c>
       <c r="F14" t="s">
         <v>105</v>
@@ -2365,10 +2769,10 @@
         <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15">
@@ -2385,7 +2789,7 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>359</v>
+        <v>468</v>
       </c>
       <c r="F15" t="s">
         <v>108</v>
@@ -2397,10 +2801,10 @@
         <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16">
@@ -2411,22 +2815,22 @@
         <v>44044.0</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>360</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>361</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>323</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
         <v>58</v>
@@ -2449,7 +2853,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>362</v>
+        <v>470</v>
       </c>
       <c r="F17" t="s">
         <v>111</v>
@@ -2461,10 +2865,10 @@
         <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18">
@@ -2481,7 +2885,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>363</v>
+        <v>472</v>
       </c>
       <c r="F18" t="s">
         <v>114</v>
@@ -2493,10 +2897,10 @@
         <v>115</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19">
@@ -2513,7 +2917,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>364</v>
+        <v>474</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2525,10 +2929,10 @@
         <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20">
@@ -2545,7 +2949,7 @@
         <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>365</v>
+        <v>476</v>
       </c>
       <c r="F20" t="s">
         <v>124</v>
@@ -2557,10 +2961,10 @@
         <v>125</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21">
@@ -2577,7 +2981,7 @@
         <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>366</v>
+        <v>478</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -2589,10 +2993,10 @@
         <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22">
@@ -2609,7 +3013,7 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>367</v>
+        <v>479</v>
       </c>
       <c r="F22" t="s">
         <v>134</v>
@@ -2621,10 +3025,10 @@
         <v>135</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23">
@@ -2638,10 +3042,10 @@
         <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>481</v>
       </c>
       <c r="E23" t="s">
-        <v>368</v>
+        <v>482</v>
       </c>
       <c r="F23" t="s">
         <v>139</v>
@@ -2653,10 +3057,10 @@
         <v>140</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24">
@@ -2670,10 +3074,10 @@
         <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>484</v>
       </c>
       <c r="E24" t="s">
-        <v>369</v>
+        <v>485</v>
       </c>
       <c r="F24" t="s">
         <v>144</v>
@@ -2685,10 +3089,10 @@
         <v>145</v>
       </c>
       <c r="I24" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25">
@@ -2705,7 +3109,7 @@
         <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>370</v>
+        <v>487</v>
       </c>
       <c r="F25" t="s">
         <v>148</v>
@@ -2717,10 +3121,10 @@
         <v>149</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26">
@@ -2734,10 +3138,10 @@
         <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>488</v>
       </c>
       <c r="E26" t="s">
-        <v>371</v>
+        <v>489</v>
       </c>
       <c r="F26" t="s">
         <v>153</v>
@@ -2749,10 +3153,10 @@
         <v>154</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27">
@@ -2781,10 +3185,10 @@
         <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28">
@@ -2798,10 +3202,10 @@
         <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>151</v>
+        <v>488</v>
       </c>
       <c r="E28" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
         <v>153</v>
@@ -2813,10 +3217,10 @@
         <v>154</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29">
@@ -2833,7 +3237,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>373</v>
+        <v>492</v>
       </c>
       <c r="F29" t="s">
         <v>163</v>
@@ -2845,10 +3249,10 @@
         <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30">
@@ -2859,19 +3263,19 @@
         <v>44110.0</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
         <v>51</v>
@@ -2894,10 +3298,10 @@
         <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>493</v>
       </c>
       <c r="E31" t="s">
-        <v>374</v>
+        <v>494</v>
       </c>
       <c r="F31" t="s">
         <v>167</v>
@@ -2909,10 +3313,10 @@
         <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>58</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32">
@@ -2923,19 +3327,19 @@
         <v>44076.0</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>375</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
         <v>51</v>
@@ -2961,7 +3365,7 @@
         <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>376</v>
+        <v>496</v>
       </c>
       <c r="F33" t="s">
         <v>171</v>
@@ -2973,10 +3377,10 @@
         <v>172</v>
       </c>
       <c r="I33" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34">
@@ -2993,7 +3397,7 @@
         <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>377</v>
+        <v>497</v>
       </c>
       <c r="F34" t="s">
         <v>175</v>
@@ -3005,10 +3409,10 @@
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35">
@@ -3057,7 +3461,7 @@
         <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>378</v>
+        <v>498</v>
       </c>
       <c r="F36" t="s">
         <v>179</v>
@@ -3069,10 +3473,10 @@
         <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37">
@@ -3089,7 +3493,7 @@
         <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>379</v>
+        <v>499</v>
       </c>
       <c r="F37" t="s">
         <v>183</v>
@@ -3101,10 +3505,10 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>58</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38">
@@ -3121,7 +3525,7 @@
         <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="F38" t="s">
         <v>186</v>
@@ -3133,10 +3537,10 @@
         <v>51</v>
       </c>
       <c r="I38" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39">
@@ -3153,7 +3557,7 @@
         <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="F39" t="s">
         <v>190</v>
@@ -3165,10 +3569,10 @@
         <v>51</v>
       </c>
       <c r="I39" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
     </row>
     <row r="40">
@@ -3179,19 +3583,19 @@
         <v>44110.0</v>
       </c>
       <c r="C40" t="s">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>382</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
         <v>51</v>
